--- a/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
+++ b/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
@@ -689,6 +689,96 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>AEFSyntaxCheck</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>All fields found.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1093,7 +1183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:C104"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A82" sqref="A82:XFD82"/>
@@ -1111,6 +1201,7 @@
   </cols>
   <sheetData>
     <row r="1">
+      <c r="A1" t="n"/>
       <c r="B1" s="15" t="inlineStr">
         <is>
           <t> </t>
@@ -2185,6 +2276,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -2194,7 +2286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:C13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -2208,6 +2300,10 @@
     <col width="8.83203125" customWidth="1" style="1" min="4" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
       <c r="B3" s="6" t="inlineStr">
         <is>
@@ -2326,6 +2422,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -2335,7 +2432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:U14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
@@ -2365,6 +2462,10 @@
     <col width="8.83203125" customWidth="1" style="15" min="22" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="B3" s="17" t="n"/>
     </row>
@@ -2740,6 +2841,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -2749,7 +2851,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:AH13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y9" sqref="Y9"/>
@@ -2791,6 +2893,10 @@
     <col width="8.83203125" customWidth="1" style="15" min="33" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="B3" s="26" t="inlineStr">
         <is>
@@ -3373,6 +3479,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -3382,7 +3489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:U33"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -3412,6 +3519,10 @@
     <col width="8.83203125" customWidth="1" style="15" min="22" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
       <c r="B3" s="97" t="inlineStr">
         <is>
@@ -4116,6 +4227,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -4125,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C8:K13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -4144,6 +4256,15 @@
     <col width="9.1640625" customWidth="1" style="15" min="11" max="16384"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="n"/>
+    </row>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
     <row r="8" ht="20.25" customHeight="1">
       <c r="C8" s="17" t="inlineStr">
         <is>
@@ -4243,6 +4364,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
@@ -4252,7 +4374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4268,159 +4390,258 @@
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Structure check</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Correct number of worksheets in workbook.</t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Correct number of worksheets in workbook</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Index</t>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>All worksheets found in workbook.</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Summary information</t>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Summary information: Table 1: Submission</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Table 1 Submission</t>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Table 2 Authorizations</t>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Summary information: Table 2: Authorizations</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Table 3 Actions</t>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Table 4 Holdings</t>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Summary information: Table 3: Actions</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Table 5 Auth. entities</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Summary information: Table 4: Holdings</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="D12" t="inlineStr">
         <is>
-          <t>All workseets found in workbook.</t>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Summary information</t>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Table 1 Submission</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Table 1 Submission</t>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Table 2 Authorizations</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Table 3 Actions</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Table 4 Holdings</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Table 5 Auth. entities</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 1 Submission'</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 2 Authorizations'</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 3 Actions'</t>
-        </is>
-      </c>
-    </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Checking the content of 'Table 4 Holdings'</t>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>All fields found.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Checking the content of 'Table 5 Auth. entities'</t>
+          <t>Content check</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Table 1 Submission</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Table 2 Authorizations</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Table 3 Actions</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Table 4 Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Table 5 Auth. entities</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>Syntax check completed successfully.</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D6" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D8" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D10" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D12" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D14" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D16" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4737,17 +4958,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09AA580-DF8F-4CF1-85F2-7137CC0438F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71821E48-63C3-4D7D-8622-E19D09FAA6F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A31981-2201-4065-AD3E-464010819DE0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3835F84C-072A-442C-9154-3A91FC2BF9C6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{660DD6FA-A942-4DA8-8BE6-7E58A18003DC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FB69B1-2D5A-4473-BAEB-6753F7833F95}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{541992BB-813E-49A2-A7B9-7454D4DF39C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EDB9077-D557-4866-8777-800998CB1EBE}"/>
 </file>
--- a/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
+++ b/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
@@ -34,7 +34,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -196,6 +196,16 @@
       <color theme="1"/>
       <sz val="10"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <i val="1"/>
+    </font>
+    <font>
+      <color rgb="000000FF"/>
+      <u val="single"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -344,7 +354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -612,6 +622,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,7 +725,7 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>All fields found.</t>
+        <t>All field content valid.</t>
       </text>
     </comment>
   </commentList>
@@ -727,7 +740,7 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>All fields found.</t>
+        <t>All field content valid.</t>
       </text>
     </comment>
   </commentList>
@@ -742,7 +755,7 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>All fields found.</t>
+        <t>All field content valid.</t>
       </text>
     </comment>
   </commentList>
@@ -757,7 +770,7 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>All fields found.</t>
+        <t>All field content valid.</t>
       </text>
     </comment>
   </commentList>
@@ -772,7 +785,7 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t>All fields found.</t>
+        <t>All field content valid.</t>
       </text>
     </comment>
   </commentList>
@@ -4374,7 +4387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,14 +4396,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="105" t="inlineStr">
         <is>
           <t>Guyana 2022 correct.xlsx</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="106" t="inlineStr">
         <is>
           <t>Structure check</t>
         </is>
@@ -4418,7 +4431,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4437,7 +4450,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4456,7 +4469,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4475,7 +4488,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4494,7 +4507,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4513,7 +4526,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4532,7 +4545,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4551,7 +4564,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4570,7 +4583,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="107" t="inlineStr">
         <is>
           <t>Link</t>
         </is>
@@ -4582,7 +4595,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="106" t="inlineStr">
         <is>
           <t>Content check</t>
         </is>
@@ -4596,35 +4609,95 @@
       </c>
     </row>
     <row r="25">
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Table 2 Authorizations</t>
+      <c r="D25" s="107" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>All field content valid.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="C26" t="inlineStr">
         <is>
-          <t>Table 3 Actions</t>
+          <t>Table 2 Authorizations</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Table 4 Holdings</t>
+      <c r="D27" s="107" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>All field content valid.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="C28" t="inlineStr">
         <is>
+          <t>Table 3 Actions</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="107" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>All field content valid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Table 4 Holdings</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="107" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>All field content valid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Table 5 Auth. entities</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="33">
+      <c r="D33" s="107" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>All field content valid.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Syntax check completed successfully.</t>
         </is>
@@ -4641,6 +4714,11 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D18" r:id="rId7"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D20" r:id="rId8"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D22" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D31" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D33" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4958,17 +5036,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71821E48-63C3-4D7D-8622-E19D09FAA6F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B99BA5-63C4-47F8-A3C5-CE0F09C159FE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3835F84C-072A-442C-9154-3A91FC2BF9C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5A3556-201D-4E76-AFC8-DC48DE99841F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5FB69B1-2D5A-4473-BAEB-6753F7833F95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3724E610-97EC-41C8-8530-0EE0CFD71C48}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EDB9077-D557-4866-8777-800998CB1EBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96F96E3-1A05-4D49-807B-AB66CECA8346}"/>
 </file>
--- a/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
+++ b/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9940" yWindow="2200" windowWidth="39680" windowHeight="19760" tabRatio="618" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9940" yWindow="2200" windowWidth="39680" windowHeight="19760" tabRatio="618" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,6 +195,12 @@
       <family val="1"/>
       <color theme="1"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -591,6 +597,12 @@
     <xf numFmtId="164" fontId="18" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -611,20 +623,14 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,6 +764,11 @@
         <t>All field content valid.</t>
       </text>
     </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <t>Cell content error: The value provided for 'First ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.3.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -771,6 +782,11 @@
     <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <t>All field content valid.</t>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <t>Cell content error: The value provided for 'First ID' must be an ITMO unique identifier as per 6/CMA.4 annex I para.3.</t>
       </text>
     </comment>
   </commentList>
@@ -2426,7 +2442,7 @@
       </c>
     </row>
     <row r="13" ht="16" customHeight="1" thickTop="1">
-      <c r="B13" s="92" t="n"/>
+      <c r="B13" s="94" t="n"/>
       <c r="C13" s="101" t="n"/>
     </row>
   </sheetData>
@@ -2448,7 +2464,7 @@
   <dimension ref="A1:U14"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2490,7 +2506,7 @@
       </c>
     </row>
     <row r="5" ht="14.5" customHeight="1">
-      <c r="B5" s="93" t="inlineStr">
+      <c r="B5" s="95" t="inlineStr">
         <is>
           <t>Authorization</t>
         </is>
@@ -2682,7 +2698,7 @@
       </c>
       <c r="L8" s="85" t="inlineStr">
         <is>
-          <t>REDD</t>
+          <t>REDD+</t>
         </is>
       </c>
       <c r="M8" s="86" t="inlineStr">
@@ -2703,7 +2719,7 @@
       </c>
       <c r="Q8" s="19" t="inlineStr">
         <is>
-          <t>2030 - 2035</t>
+          <t>Use: from 2030 to 2035</t>
         </is>
       </c>
       <c r="R8" s="19" t="n"/>
@@ -2866,8 +2882,8 @@
   </sheetPr>
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3047,14 +3063,14 @@
       <c r="V6" s="38" t="n"/>
       <c r="W6" s="38" t="n"/>
       <c r="X6" s="36" t="n"/>
-      <c r="Y6" s="95" t="inlineStr">
+      <c r="Y6" s="97" t="inlineStr">
         <is>
           <t xml:space="preserve"> Transfer / Acquisition</t>
         </is>
       </c>
       <c r="Z6" s="102" t="n"/>
       <c r="AA6" s="40" t="n"/>
-      <c r="AB6" s="94" t="inlineStr">
+      <c r="AB6" s="96" t="inlineStr">
         <is>
           <t>Use or cancellation</t>
         </is>
@@ -3252,8 +3268,8 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="56" customHeight="1">
-      <c r="B9" s="99" t="n">
+    <row r="9" ht="70" customHeight="1">
+      <c r="B9" s="92" t="n">
         <v>45292</v>
       </c>
       <c r="C9" s="24" t="inlineStr">
@@ -3288,12 +3304,12 @@
       </c>
       <c r="I9" s="87" t="inlineStr">
         <is>
-          <t>CA0005-ART-GY-1-2022</t>
+          <t>CA0005-GUY01-GUY-1-2022</t>
         </is>
       </c>
       <c r="J9" s="88" t="inlineStr">
         <is>
-          <t>CA0005-ART-GY-8,732,929-2022</t>
+          <t>CA0005-GUY01-GUY-8,732,929-2022</t>
         </is>
       </c>
       <c r="K9" s="19" t="n"/>
@@ -3505,7 +3521,7 @@
   <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -3537,7 +3553,7 @@
     </row>
     <row r="2"/>
     <row r="3" ht="16" customHeight="1" thickBot="1">
-      <c r="B3" s="97" t="inlineStr">
+      <c r="B3" s="99" t="inlineStr">
         <is>
           <t>Table 4: Holdings</t>
         </is>
@@ -3552,7 +3568,7 @@
       <c r="J3" s="103" t="n"/>
       <c r="K3" s="103" t="n"/>
       <c r="L3" s="50" t="n"/>
-      <c r="M3" s="98" t="n"/>
+      <c r="M3" s="100" t="n"/>
       <c r="N3" s="103" t="n"/>
       <c r="O3" s="103" t="n"/>
       <c r="P3" s="103" t="n"/>
@@ -3566,7 +3582,7 @@
       <c r="C4" s="67" t="n"/>
       <c r="D4" s="68" t="n"/>
       <c r="E4" s="67" t="n"/>
-      <c r="F4" s="96" t="inlineStr">
+      <c r="F4" s="98" t="inlineStr">
         <is>
           <t>Unique identifiers</t>
         </is>
@@ -3577,7 +3593,7 @@
       <c r="J4" s="104" t="n"/>
       <c r="K4" s="104" t="n"/>
       <c r="L4" s="69" t="n"/>
-      <c r="M4" s="96" t="inlineStr">
+      <c r="M4" s="98" t="inlineStr">
         <is>
           <t>Metric and quantity</t>
         </is>
@@ -3587,7 +3603,7 @@
       <c r="P4" s="104" t="n"/>
       <c r="Q4" s="104" t="n"/>
       <c r="R4" s="69" t="n"/>
-      <c r="S4" s="96" t="inlineStr">
+      <c r="S4" s="98" t="inlineStr">
         <is>
           <t>ITMO details</t>
         </is>
@@ -3600,14 +3616,14 @@
       <c r="C5" s="23" t="n"/>
       <c r="D5" s="38" t="n"/>
       <c r="E5" s="38" t="n"/>
-      <c r="F5" s="94" t="inlineStr">
+      <c r="F5" s="96" t="inlineStr">
         <is>
           <t>ITMO unique identifier</t>
         </is>
       </c>
       <c r="G5" s="102" t="n"/>
       <c r="H5" s="18" t="n"/>
-      <c r="I5" s="94" t="inlineStr">
+      <c r="I5" s="96" t="inlineStr">
         <is>
           <t>Underlying units</t>
         </is>
@@ -3634,7 +3650,7 @@
       <c r="G6" s="37" t="n"/>
       <c r="H6" s="18" t="n"/>
       <c r="I6" s="23" t="n"/>
-      <c r="J6" s="94" t="inlineStr">
+      <c r="J6" s="96" t="inlineStr">
         <is>
           <t>Underlying unit unique identifier</t>
         </is>
@@ -3737,7 +3753,7 @@
       </c>
       <c r="U7" s="21" t="n"/>
     </row>
-    <row r="8" ht="56" customHeight="1">
+    <row r="8" ht="70" customHeight="1">
       <c r="B8" s="82" t="inlineStr">
         <is>
           <t>CA0005</t>
@@ -3760,12 +3776,12 @@
       </c>
       <c r="F8" s="87" t="inlineStr">
         <is>
-          <t>CA0005-ART-GY-1-2022</t>
+          <t>CA0005-GUY01-GUY-1-2022</t>
         </is>
       </c>
       <c r="G8" s="88" t="inlineStr">
         <is>
-          <t>CA0005-ART-GY-8,732,929-2022</t>
+          <t>CA0005-GUY01-GUY-8,732,929-2022</t>
         </is>
       </c>
       <c r="H8" s="19" t="n"/>
@@ -4252,7 +4268,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -4287,7 +4303,7 @@
     </row>
     <row r="9" ht="15" customHeight="1">
       <c r="C9" s="51" t="n"/>
-      <c r="D9" s="94" t="inlineStr">
+      <c r="D9" s="96" t="inlineStr">
         <is>
           <t>Authorized entity</t>
         </is>
@@ -4344,7 +4360,7 @@
       <c r="K10" s="53" t="n"/>
     </row>
     <row r="11">
-      <c r="C11" s="100" t="n">
+      <c r="C11" s="93" t="n">
         <v>45707</v>
       </c>
       <c r="D11" s="53" t="n"/>
@@ -4725,8 +4741,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3aa8ea1b9f2e27c2fdef6ef4056186e5">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="16259e29b70fac56f05f7b64cc1f875d" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -5036,17 +5052,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70B99BA5-63C4-47F8-A3C5-CE0F09C159FE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E66A704-18A3-4F94-977E-5AB254D0AA02}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5A3556-201D-4E76-AFC8-DC48DE99841F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE0840C-BC11-4BC1-A7C8-55D99CE03D98}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3724E610-97EC-41C8-8530-0EE0CFD71C48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E58CCB-ABA3-4E5E-9953-224F70B152BB}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C96F96E3-1A05-4D49-807B-AB66CECA8346}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F221066-6B9C-4D90-AC82-56FEB309767F}"/>
 </file>
--- a/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
+++ b/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
@@ -5039,30 +5039,30 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
     <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E66A704-18A3-4F94-977E-5AB254D0AA02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB8A4C-AAD1-4BD6-94C3-FE6B0C969461}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DE0840C-BC11-4BC1-A7C8-55D99CE03D98}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7D9E59-246D-4FBA-930A-F4067646F24D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6E58CCB-ABA3-4E5E-9953-224F70B152BB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32DD130C-D11D-4F07-A709-DFB0D0D8476D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F221066-6B9C-4D90-AC82-56FEB309767F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED08F4AD-BA1A-46C4-B25C-650B296B7BF1}"/>
 </file>
--- a/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
+++ b/AEF_files/Guyana 2022 correct.syntax_checked.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9940" yWindow="2200" windowWidth="39680" windowHeight="19760" tabRatio="618" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4180" yWindow="13020" windowWidth="39680" windowHeight="14260" tabRatio="618" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId1"/>
@@ -2882,8 +2882,8 @@
   </sheetPr>
   <dimension ref="A1:AH13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2944,11 +2944,7 @@
       </c>
       <c r="C4" s="29" t="n"/>
       <c r="D4" s="29" t="n"/>
-      <c r="E4" s="23" t="inlineStr">
-        <is>
-          <t>Cooperative approach ID</t>
-        </is>
-      </c>
+      <c r="E4" s="23" t="n"/>
       <c r="F4" s="31" t="inlineStr">
         <is>
           <t>ITMO</t>
@@ -5039,30 +5035,30 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
     <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
     <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
     <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
     <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42EB8A4C-AAD1-4BD6-94C3-FE6B0C969461}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C11501AF-B90E-4E33-A1D0-78FFB93E87AE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D7D9E59-246D-4FBA-930A-F4067646F24D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6223FAC2-B6DA-4F68-93CB-280B16E74F0B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32DD130C-D11D-4F07-A709-DFB0D0D8476D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D562DC-F586-473A-B44E-CBF719F6ABE3}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED08F4AD-BA1A-46C4-B25C-650B296B7BF1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F4EE40E-D830-4FE6-9626-13732AE6129B}"/>
 </file>